--- a/data/questions/analysis/collected.xlsx
+++ b/data/questions/analysis/collected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D380"/>
+  <dimension ref="A1:D346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7943,7 +7943,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11) Can we create a DataFrame with multiple data types in Python? If yes, how can you do it?
+          <t xml:space="preserve">11) Can we create a DataFrame with multiple data types in Python? If yes, how can you do it?
 </t>
         </is>
       </c>
@@ -7960,7 +7960,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12) Is it possible to plot histogram in Pandas without calling Matplotlib? If yes, then write the code to plot the histogram?
+          <t xml:space="preserve">12) Is it possible to plot histogram in Pandas without calling Matplotlib? If yes, then write the code to plot the histogram?
 </t>
         </is>
       </c>
@@ -7977,11 +7977,16 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 13) What are the possible ways to load an array from a text data file in Python? How can the efficiency of the code to load data file be improved?
-</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr"/>
+          <t xml:space="preserve">13) What are the possible ways to load an array from a text data file in Python? How can the efficiency of the code to load data file be improved?
+</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   numpy.loadtxt ()
+</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -7994,11 +7999,16 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t xml:space="preserve">   numpy.loadtxt ()
-</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr"/>
+          <t xml:space="preserve">14) Which is the standard data missing marker used in Pandas?
+</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NaN
+</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -8011,16 +8021,11 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t xml:space="preserve">14) Which is the standard data missing marker used in Pandas?
-</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NaN
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">15) Why you should use NumPy arrays instead of nested Python lists?
+</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -8033,7 +8038,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t xml:space="preserve">15) Why you should use NumPy arrays instead of nested Python lists?
+          <t xml:space="preserve">16)  What is the preferred method to check for an empty array in NumPy? 
 </t>
         </is>
       </c>
@@ -8050,7 +8055,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t xml:space="preserve">16)  What is the preferred method to check for an empty array in NumPy? 
+          <t xml:space="preserve">17) List down some evaluation metrics for regression problems.
 </t>
         </is>
       </c>
@@ -8067,11 +8072,16 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t xml:space="preserve">17) List down some evaluation metrics for regression problems.
-</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr"/>
+          <t xml:space="preserve">18) Which Python library would you prefer to use for Data Munging?
+</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pandas
+</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -8084,13 +8094,13 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t xml:space="preserve">18) Which Python library would you prefer to use for Data Munging?
+          <t xml:space="preserve">19) Write the code to sort an array in NumPy by the nth column?
 </t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pandas
+          <t xml:space="preserve">Using argsort () function this can be achieved. If there is an array X and you would like to sort the nth column then code for this will be x[x [: n-1].argsort ()]
 </t>
         </is>
       </c>
@@ -8106,7 +8116,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t xml:space="preserve">19) Write the code to sort an array in NumPy by the nth column?
+          <t xml:space="preserve">20) How are NumPy and SciPy related?
 </t>
         </is>
       </c>
@@ -8123,11 +8133,16 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t xml:space="preserve">Using argsort () function this can be achieved. If there is an array X and you would like to sort the nth column then code for this will be x[x [: n-1].argsort ()]
-</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr"/>
+          <t xml:space="preserve">21) Which python library is built on top of matplotlib and Pandas to ease data plotting?
+</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seaborn
+</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -8140,11 +8155,16 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t xml:space="preserve">20) How are NumPy and SciPy related?
-</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr"/>
+          <t xml:space="preserve">22) Which plot will you use to access the uncertainty of a statistic?
+</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bootstrap
+</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -8157,16 +8177,11 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t xml:space="preserve">21) Which python library is built on top of matplotlib and Pandas to ease data plotting?
-</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Seaborn
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">23) What are some features of Pandas that you like or dislike?
+</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -8179,16 +8194,11 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t xml:space="preserve">22) Which plot will you use to access the uncertainty of a statistic?
-</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bootstrap
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">24) Which scientific libraries in SciPy have you worked with in your project?
+</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -8201,11 +8211,16 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t xml:space="preserve">23) What are some features of Pandas that you like or dislike?
-</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr"/>
+          <t xml:space="preserve">25) What is pylab?
+</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A package that combines NumPy, SciPy and Matplotlib into a single namespace.
+</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -8218,11 +8233,16 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t xml:space="preserve">24) Which scientific libraries in SciPy have you worked with in your project?
-</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr"/>
+          <t xml:space="preserve">26) Which python library is used for Machine Learning?
+</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SciKit-Learn
+</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -8235,13 +8255,16 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t xml:space="preserve">25) What is pylab?
+          <t xml:space="preserve">27) How can you copy objects in Python?
 </t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t xml:space="preserve">A package that combines NumPy, SciPy and Matplotlib into a single namespace.
+          <t xml:space="preserve">The functions used to copy objects in Python are-
+1.  Copy.copy () for shallow copy
+2.  Copy.deepcopy () for deep copy
+However, it is not possible to copy all objects in Python using these functions.  For instance, dictionaries have a separate copy method whereas sequences in Python have to be copied by ‘Slicing’.
 </t>
         </is>
       </c>
@@ -8257,13 +8280,13 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t xml:space="preserve">26) Which python library is used for Machine Learning?
+          <t xml:space="preserve">28) What is the difference between tuples and lists in Python?
 </t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t xml:space="preserve">SciKit-Learn
+          <t xml:space="preserve">Tuples can be used as keys for dictionaries i.e. they can be hashed. Lists are mutable whereas tuples are immutable - they cannot be changed. Tuples should be used when the order of elements in a sequence matters. For example, set of actions that need to be executed in sequence, geographic locations or list of points on a specific route.
 </t>
         </is>
       </c>
@@ -8279,13 +8302,13 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t xml:space="preserve">27) How can you copy objects in Python?
+          <t xml:space="preserve">29) What is PEP8?
 </t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t xml:space="preserve">The functions used to copy objects in Python are-
+          <t xml:space="preserve">PEP8 consists of coding guidelines for Python language so that programmers can write readable code making it easy to use for any other person, later on.
 </t>
         </is>
       </c>
@@ -8301,11 +8324,16 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t xml:space="preserve">1)  Copy.copy () for shallow copy
-</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr"/>
+          <t xml:space="preserve">30) Is all the memory freed when Python exits?
+</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No it is not, because the objects that are referenced from global namespaces of Python modules are not always de-allocated when Python exits.
+</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -8318,13 +8346,14 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t xml:space="preserve">2)  Copy.deepcopy () for deep copy
+          <t xml:space="preserve">31) What does _init_.py do?
 </t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t xml:space="preserve">However, it is not possible to copy all objects in Python using these functions.  For instance, dictionaries have a separate copy method whereas sequences in Python have to be copied by ‘Slicing’.
+          <t xml:space="preserve">_init_.py is an empty py file used for importing a module in a directory. _init_.py provides an easy way to organize the files. If there is a module maindir/subdir/module.py,_init_.py is placed in all the directories so that the module can be imported using the following command-
+import  maindir.subdir.module
 </t>
         </is>
       </c>
@@ -8340,13 +8369,13 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t xml:space="preserve">28) What is the difference between tuples and lists in Python?
+          <t xml:space="preserve">32) What is the different between range () and xrange () functions in Python?
 </t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tuples can be used as keys for dictionaries i.e. they can be hashed. Lists are mutable whereas tuples are immutable - they cannot be changed. Tuples should be used when the order of elements in a sequence matters. For example, set of actions that need to be executed in sequence, geographic locations or list of points on a specific route.
+          <t xml:space="preserve">range () returns a list whereas xrange () returns an object that acts like an iterator for generating numbers on demand.
 </t>
         </is>
       </c>
@@ -8362,13 +8391,13 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t xml:space="preserve">29) What is PEP8?
+          <t xml:space="preserve">33) How can you randomize the items of a list in place in Python?
 </t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t xml:space="preserve">PEP8 consists of coding guidelines for Python language so that programmers can write readable code making it easy to use for any other person, later on.
+          <t xml:space="preserve">Shuffle (lst) can be used for randomizing the items of a list in Python.
 </t>
         </is>
       </c>
@@ -8384,13 +8413,13 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t xml:space="preserve">30) Is all the memory freed when Python exits?
+          <t xml:space="preserve">34) What is a pass in Python?
 </t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t xml:space="preserve">No it is not, because the objects that are referenced from global namespaces of Python modules are not always de-allocated when Python exits.
+          <t xml:space="preserve">Pass in Python signifies a no operation statement indicating that nothing is to be done.
 </t>
         </is>
       </c>
@@ -8406,14 +8435,13 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t xml:space="preserve">31) What does _init_.py do?
+          <t xml:space="preserve">35) If you are gives the first and last names of employees, which data type in Python will you use to store them?
 </t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t xml:space="preserve">_init_.py is an empty py file used for importing a module in a directory. _init_.py provides an easy way to organize the files. If there is a module maindir/subdir/module.py,_init_.py is placed in all the directories so that the module can be imported using the following command-
-import  maindir.subdir.module
+          <t xml:space="preserve">You can use a list that has first name and last name included in an element or use Dictionary.
 </t>
         </is>
       </c>
@@ -8429,11 +8457,16 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t xml:space="preserve">32) What is the different between range () and xrange () functions in Python?
-</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr"/>
+          <t xml:space="preserve">36) What happens when you execute the statement mango=banana in Python?
+</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A name error will occur when this statement is executed in Python.
+</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -8446,7 +8479,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t xml:space="preserve">range () returns a list whereas xrange () returns an object that acts like an iterator for generating numbers on demand.
+          <t xml:space="preserve">37) Write a sorting algorithm for a numerical dataset in Python. 
 </t>
         </is>
       </c>
@@ -8463,11 +8496,18 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t xml:space="preserve">33) How can you randomize the items of a list in place in Python?
-</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr"/>
+          <t xml:space="preserve">38) Optimize the below python code-
+</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t xml:space="preserve">word = 'word'
+print word.__len__ ()
+Answer: print ‘word’._len_ ()
+</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -8480,11 +8520,16 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shuffle (lst) can be used for randomizing the items of a list in Python.
-</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr"/>
+          <t xml:space="preserve">39) What is monkey patching in Python?
+</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monkey patching is a technique that helps the programmer to modify or extend other code at runtime. Monkey patching comes handy in testing but it is not a good practice to use it in production environment as debugging the code could become difficult.
+</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -8497,13 +8542,13 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t xml:space="preserve">34) What is a pass in Python?
+          <t xml:space="preserve">40) Which tool in Python will you use to find bugs if any?
 </t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pass in Python signifies a no operation statement indicating that nothing is to be done.
+          <t xml:space="preserve">Pylint and Pychecker. Pylint verifies that a module satisfies all the coding standards or not. Pychecker is a static analysis tool that helps find out bugs in the course code.
 </t>
         </is>
       </c>
@@ -8519,13 +8564,13 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t xml:space="preserve">35) If you are gives the first and last names of employees, which data type in Python will you use to store them?
+          <t xml:space="preserve">41) How are arguments passed in Python- by reference or by value?
 </t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t xml:space="preserve">You can use a list that has first name and last name included in an element or use Dictionary.
+          <t xml:space="preserve">The answer to this question is neither of these because passing semantics in Python are completely different. In all cases, Python passes arguments by value where all values are references to objects.
 </t>
         </is>
       </c>
@@ -8541,13 +8586,14 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t xml:space="preserve">36) What happens when you execute the statement mango=banana in Python?
+          <t xml:space="preserve">42) You are given a list of N numbers. Create a single list comprehension in Python to create a new list that contains only those values which have even numbers from elements of the list at even indices. For instance if list[4] has an even value the it has be included in the new output list because it has an even index but if list[5] has an even value it should not be included in the list because it is not at an even index.
 </t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t xml:space="preserve">A name error will occur when this statement is executed in Python.
+          <t xml:space="preserve">[x for x in list [1::2] if x%2 == 0]
+The above code will take all the numbers present at even indices and then discard the odd numbers.
 </t>
         </is>
       </c>
@@ -8563,11 +8609,16 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t xml:space="preserve">37) Write a sorting algorithm for a numerical dataset in Python. 
-</t>
-        </is>
-      </c>
-      <c r="D313" t="inlineStr"/>
+          <t xml:space="preserve">43) Explain the usage of decorators.
+</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Decorators in Python are used to modify or inject code in functions or classes. Using decorators, you can wrap a class or function method call so that a piece of code can be executed before or after the execution of the original code. Decorators can be used to check for permissions, modify or track the arguments passed to a method, logging the calls to a specific method, etc.
+</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -8580,13 +8631,13 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t xml:space="preserve">38) Optimize the below python code-
+          <t xml:space="preserve">44) How can you check whether a pandas data frame is empty or not?
 </t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t xml:space="preserve">word = 'word'
+          <t xml:space="preserve">The attribute df.empty is used to check whether a data frame is empty or not.
 </t>
         </is>
       </c>
@@ -8602,11 +8653,19 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t xml:space="preserve">print word.__len__ ()
-</t>
-        </is>
-      </c>
-      <c r="D315" t="inlineStr"/>
+          <t xml:space="preserve">45) What will be the output of the below Python code –
+</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def multipliers ():
+    return [lambda x: i * x for i in range (4)]
+    print [m (2) for m in multipliers ()]
+The output for the above code will be [6, 6,6,6]. The reason for this is that because of late binding the value of the variable i is looked up when any of the functions returned by multipliers are called.
+</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -8619,11 +8678,19 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t xml:space="preserve">Answer: print ‘word’._len_ ()
-</t>
-        </is>
-      </c>
-      <c r="D316" t="inlineStr"/>
+          <t xml:space="preserve">46) What do you mean by list comprehension?
+</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The process of creating a list while performing some operation on the data so that it can be accessed using an iterator is referred to as List Comprehension.
+Example:
+[ord (j) for j in string.ascii_uppercase]
+     [65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90]
+</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -8636,262 +8703,11 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t xml:space="preserve">39) What is monkey patching in Python?
+          <t xml:space="preserve">47) What will be the output of the below code
 </t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Monkey patching is a technique that helps the programmer to modify or extend other code at runtime. Monkey patching comes handy in testing but it is not a good practice to use it in production environment as debugging the code could become difficult.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t xml:space="preserve">40) Which tool in Python will you use to find bugs if any?
-</t>
-        </is>
-      </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pylint and Pychecker. Pylint verifies that a module satisfies all the coding standards or not. Pychecker is a static analysis tool that helps find out bugs in the course code.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 41) How are arguments passed in Python- by reference or by value?
-</t>
-        </is>
-      </c>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The answer to this question is neither of these because passing semantics in Python are completely different. In all cases, Python passes arguments by value where all values are references to objects.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t xml:space="preserve">42) You are given a list of N numbers. Create a single list comprehension in Python to create a new list that contains only those values which have even numbers from elements of the list at even indices. For instance if list[4] has an even value the it has be included in the new output list because it has an even index but if list[5] has an even value it should not be included in the list because it is not at an even index.
-</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> [x for x in list [1::2] if x%2 == 0]
-The above code will take all the numbers present at even indices and then discard the odd numbers.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t xml:space="preserve">43) Explain the usage of decorators.
-</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Decorators in Python are used to modify or inject code in functions or classes. Using decorators, you can wrap a class or function method call so that a piece of code can be executed before or after the execution of the original code. Decorators can be used to check for permissions, modify or track the arguments passed to a method, logging the calls to a specific method, etc.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t xml:space="preserve">44) How can you check whether a pandas data frame is empty or not?
-</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The attribute df.empty is used to check whether a data frame is empty or not.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t xml:space="preserve">45) What will be the output of the below Python code –
-</t>
-        </is>
-      </c>
-      <c r="D323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def multipliers ():
-</t>
-        </is>
-      </c>
-      <c r="D324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    return [lambda x: i * x for i in range (4)]
-</t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    print [m (2) for m in multipliers ()]
-</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The output for the above code will be [6, 6,6,6]. The reason for this is that because of late binding the value of the variable i is looked up when any of the functions returned by multipliers are called.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t xml:space="preserve">46) What do you mean by list comprehension?
-</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The process of creating a list while performing some operation on the data so that it can be accessed using an iterator is referred to as List Comprehension.
-Example:
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[ord (j) for j in string.ascii_uppercase]
-</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     [65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90]
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t xml:space="preserve">47) What will be the output of the below code
-</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr">
         <is>
           <t xml:space="preserve">word = ‘aeioubcdfg'
 print word [:3] + word [3:]
@@ -8901,6 +8717,302 @@
         </is>
       </c>
     </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">48) list= [‘a’,’e’,’i’,’o’,’u’]
+</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">print list [8:]
+The output for the above code will be an empty list []. Most of the people might confuse the answer with an index error because the code is attempting to access a member in the list whose index exceeds the total number of members in the list. The reason being the code is trying to access the slice of a list at a starting index which is greater than the number of members in the list.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t xml:space="preserve">49) What will be the output of the below code:
+</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def foo (i= []):
+    i.append (1)
+    return i
+&gt;&gt;&gt; foo ()
+&gt;&gt;&gt; foo ()
+The output for the above code will be-
+[1]
+[1, 1]
+The argument to the function foo is evaluated only once when the function is defined. However, since it is a list, on every all the list is modified by appending a 1 to it.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">50) Can the lambda forms in Python contain statements?
+</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No, as their syntax is restricted to single expressions and they are used for creating function objects which are returned at runtime.
+This list of questions for Python interview questions and answers is not an exhaustive one and will continue to be a work in progress. Let us know in the comments below if we missed out on any important question that needs to be up here.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">51) What will be the data type of x for the following code?
+</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">`x = input(“Enter a number”)
+String. 
+In Python versions released earlier than 3.x, there was a function by the same which tried to guess the data type of the input. But, now the default data type is string.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t xml:space="preserve">52) What do you mean by pickling and unpickling in Python?
+</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Python has a module called pickle which accepts any python object as an input and transforms it into a string representation before dumping it into a file using the dump function. This process is called pickling. The process of obtaining python objects from a pickled file is called unpickling.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">53) What will be the output of the following code:
+</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&gt;&gt;&gt;Welcome = “Welcome to ProjectPro!”
+&gt;&gt;&gt;Welcome[1:7:2]
+‘ecm’ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t xml:space="preserve">54) What is wrong with the following code:
+</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> &gt;&gt;&gt;print(“I love browsing through “ProjectPro” content.”)
+ It will give you a syntax error. That is because if one wants to print double quotes, they need to use single quotes for string. So, the correct code would be:
+&gt;&gt;&gt;print(“I love browsing through ‘ProjectPro’ content.”)
+Or
+&gt;&gt;&gt;print(‘I love browsing through “ProjectPro” content.’)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55) How can you iterate over a few files in python?
+</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&gt;&gt;&gt;import os
+&gt;&gt;&gt;directory = r’C:\Users\admin directory’
+&gt;&gt;&gt;for filename in os.listdir(directory):
+&gt;&gt;&gt; if(filename.endswith(‘.csv’):
+&gt;&gt;&gt; print(os.path.join(directory,filename))
+This code will help you in automating your task.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">56) What will be the data type of x for the following code?
+</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">`x = input(“Enter a number”)
+String. 
+In Python versions released earlier than 3.x, there was a function by the same which tried to guess the data type of the input. But, now the default data type is a string.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t xml:space="preserve">57) What do you mean by pickling and unpickling in Python?
+</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Python has a module called pickle which accepts any Python object as an input and transforms it into a string representation before dumping it into a file using the dump function. This process is called pickling. The process of obtaining python objects from a pickled file is called unpickling.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">58) What will be the output of the following code:
+</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&gt;&gt;&gt;Welcome = “Welcome to ProjectPro!”
+&gt;&gt;&gt;Welcome[1:7:2]
+‘ecm’
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59) What is wrong with the following code:
+</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> &gt;&gt;&gt;print(“I love browsing through “ProjectPro” content.”)
+It will give you a syntax error. That is because if one wants to print double quotes, they need to use single quotes for string. So, the correct code would be:
+&gt;&gt;&gt;print(“I love browsing through ‘ProjectPro’ content.”)
+Or
+&gt;&gt;&gt;print(‘I love browsing through “ProjectPro” content.’)
+Go through the following python interview questions for data science that are slightly advanced. These python data science interview questions might be difficult for you to answer but it is important that you prepare for these python interview questions as well before going for your interview.
+</t>
+        </is>
+      </c>
+    </row>
     <row r="330">
       <c r="A330" s="1" t="n">
         <v>328</v>
@@ -8912,14 +9024,14 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t xml:space="preserve">48) list= [‘a’,’e’,’i’,’o’,’u’]
+          <t xml:space="preserve">1) How will you use Pandas library to import a CSV file from a URL?
 </t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t xml:space="preserve">print list [8:]
-The output for the above code will be an empty list []. Most of the people might confuse the answer with an index error because the code is attempting to access a member in the list whose index exceeds the total number of members in the list. The reason being the code is trying to access the slice of a list at a starting index which is greater than the number of members in the list.
+          <t xml:space="preserve">import pandas as pd
+         Data = pd.read_CV(‘sample_url’)
 </t>
         </is>
       </c>
@@ -8935,11 +9047,16 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t xml:space="preserve">49) What will be the output of the below code:
-</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr"/>
+          <t xml:space="preserve">2) How will you transpose a NumPy array?
+</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nparr.T
+</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -8952,11 +9069,16 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t xml:space="preserve">def foo (i= []):
-</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr"/>
+          <t xml:space="preserve">3) What are universal functions for n-dimensional arrays?
+</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Universal functions are the functions that perform mathematical operations on each element of an n-dimensional array. Example: np.sqrt() and np.exp() evaluate square root and exponential of each element of an array respectively.
+</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -8969,13 +9091,13 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t xml:space="preserve">    i.append (1)
+          <t xml:space="preserve">4) List a few statistical methods available for a NumPy array.
 </t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t xml:space="preserve">    return i
+          <t xml:space="preserve">np.means(), np.cumsum(), np.sum(),
 </t>
         </is>
       </c>
@@ -8991,11 +9113,17 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t xml:space="preserve">&gt;&gt;&gt; foo ()
-</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr"/>
+          <t xml:space="preserve">5) What are boolean arrays? Write a code to create a boolean array using the NumPy library.
+</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A boolean array is an array whose elements are of the boolean data type. A vital point to remember is that for boolean arrays, Python keywords and and or do not work.
+ Barr = np.array([ True, True, False, True, False, True, False], dtype=bool) 
+</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -9008,16 +9136,13 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t xml:space="preserve">&gt;&gt;&gt; foo ()
+          <t xml:space="preserve">6) What is Fancy Indexing?
 </t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t xml:space="preserve">The output for the above code will be-
-[1]
-[1, 1]
-The argument to the function foo is evaluated only once when the function is defined. However, since it is a list, on every all the list is modified by appending a 1 to it.
+          <t xml:space="preserve">IN NumPy, one can use an integer list to describe the indexing of NumPy arrays. For example, Array[[2,1,0,3]] for an array of dimensions 4x4 will print the rows in the order specified by the list.
 </t>
         </is>
       </c>
@@ -9033,14 +9158,13 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t xml:space="preserve">50) Can the lambda forms in Python contain statements?
+          <t xml:space="preserve">7) What is NaT in Python’s Pandas library?
 </t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t xml:space="preserve">No, as their syntax is restricted to single expressions and they are used for creating function objects which are returned at runtime.
-This list of questions for Python interview questions and answers is not an exhaustive one and will continue to be a work in progress. Let us know in the comments below if we missed out on any important question that needs to be up here.
+          <t xml:space="preserve">NaT stands for Not a Time. It is the NA value for timestamp data
 </t>
         </is>
       </c>
@@ -9056,11 +9180,16 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t xml:space="preserve">51) What will be the data type of x for the following code?
-</t>
-        </is>
-      </c>
-      <c r="D337" t="inlineStr"/>
+          <t xml:space="preserve">8) What is Broadcasting for NumPy arrays?
+</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Broadcasting is a technique that specifies how arithmetic calculations are performed between arrays of different dimensions. 
+</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -9073,14 +9202,13 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t xml:space="preserve">`x = input(“Enter a number”)
+          <t xml:space="preserve">9) What is the necessary condition for broadcasting two arrays?
 </t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t xml:space="preserve">String. 
-In Python versions released earlier than 3.x, there was a function by the same which tried to guess the data type of the input. But, now the default data type is string.
+          <t xml:space="preserve">The two arrays must satisfy either of the following conditions:
 </t>
         </is>
       </c>
@@ -9096,13 +9224,13 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t xml:space="preserve">52) What do you mean by pickling and unpickling in Python?
+          <t xml:space="preserve">10) What is PEP for Python?
 </t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t xml:space="preserve">Python has a module called pickle which accepts any python object as an input and transforms it into a string representation before dumping it into a file using the dump function. This process is called pickling. The process of obtaining python objects from a pickled file is called unpickling.
+          <t xml:space="preserve">PEP stands for Python Enhancement Proposal. It is a document that provides information related to new features of Python, its processes or environments.
 </t>
         </is>
       </c>
@@ -9118,15 +9246,13 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t xml:space="preserve">53) What will be the output of the following code:
+          <t xml:space="preserve">11) What do you mean by overfitting a dataset?
 </t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t xml:space="preserve">&gt;&gt;&gt;Welcome = “Welcome to ProjectPro!”
-&gt;&gt;&gt;Welcome[1:7:2]
-‘ecm’ 
+          <t xml:space="preserve">Overfitting a dataset means our model is fitting the training dataset so well that it performs poorly on the test dataset. One of the key reasons for overfitting could be that the model has learned the noise in the dataset.
 </t>
         </is>
       </c>
@@ -9142,11 +9268,16 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t xml:space="preserve">54) What is wrong with the following code:
-</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr"/>
+          <t xml:space="preserve">12) What do you mean by underfitting a dataset?
+</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Underfitting a dataset means our model is fitting the training dataset poorly. It usually occurs when we don’t fine-tune the parameters of a model and keep looking for alternatives.
+</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -9159,13 +9290,13 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt;&gt;&gt;print(“I love browsing through “ProjectPro” content.”)
+          <t xml:space="preserve">13) What is the difference between a test set and a validation set?
 </t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It will give you a syntax error. That is because if one wants to print double quotes, they need to use single quotes for string. So, the correct code would be:
+          <t xml:space="preserve">For unsupervised learning, we use a validation set for selecting a model based on the estimated prediction error. On the other hand, we use a test set to assess the accuracy of the finally chosen model.
 </t>
         </is>
       </c>
@@ -9181,13 +9312,13 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t xml:space="preserve">&gt;&gt;&gt;print(“I love browsing through ‘ProjectPro’ content.”)
+          <t xml:space="preserve">14) What is F1-score for a binary classifier? Which library in Python contains this metric?
 </t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t xml:space="preserve">Or
+          <t xml:space="preserve">The F1-score is a combination of precision and recall that represents the harmonic mean of the two quantities. It is given by the formula
 </t>
         </is>
       </c>
@@ -9203,11 +9334,16 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t xml:space="preserve">&gt;&gt;&gt;print(‘I love browsing through “ProjectPro” content.’)
-</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr"/>
+          <t xml:space="preserve">15) Write a function for f1_score that takes True Positive, False Positive, True Negative, and False Negative as input and outputs f1_score.
+</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def f1_score(tp, fp, fn, tn):  p =  tp / (tp + fp)   r = tp / (tp + fn)  return 2 * p * r / (p + r)
+</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -9220,14 +9356,13 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t xml:space="preserve">55) How can you iterate over a few files in python?
+          <t xml:space="preserve">16) Using sklearn library, how will you implement ridge regression?
 </t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t xml:space="preserve">&gt;&gt;&gt;import os
-&gt;&gt;&gt;directory = r’C:\Users\admin directory’
+          <t xml:space="preserve">&gt;&gt;&gt; from sklearn import linear_model&gt;&gt;&gt;reg = linear_model.LinearRegression()&gt;&gt;&gt; reg = linear_model.Ridge(alpha=0.5)&gt;&gt;&gt; reg.fit(sample_dataset)
 </t>
         </is>
       </c>
@@ -9243,694 +9378,17 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t xml:space="preserve">&gt;&gt;&gt;for filename in os.listdir(directory):
-</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C347" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&gt;&gt;&gt; if(filename.endswith(‘.csv’):
-</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&gt;&gt;&gt; print(os.path.join(directory,filename))
-</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This code will help you in automating your task.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t xml:space="preserve">56) What will be the data type of x for the following code?
-</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr"/>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t xml:space="preserve">`x = input(“Enter a number”)
-</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t xml:space="preserve">String. 
-In Python versions released earlier than 3.x, there was a function by the same which tried to guess the data type of the input. But, now the default data type is a string.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t xml:space="preserve">57) What do you mean by pickling and unpickling in Python?
-</t>
-        </is>
-      </c>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Python has a module called pickle which accepts any Python object as an input and transforms it into a string representation before dumping it into a file using the dump function. This process is called pickling. The process of obtaining python objects from a pickled file is called unpickling.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C352" t="inlineStr">
-        <is>
-          <t xml:space="preserve">58) What will be the output of the following code:
-</t>
-        </is>
-      </c>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&gt;&gt;&gt;Welcome = “Welcome to ProjectPro!”
-&gt;&gt;&gt;Welcome[1:7:2]
-‘ecm’
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C353" t="inlineStr">
-        <is>
-          <t xml:space="preserve">59) What is wrong with the following code:
-</t>
-        </is>
-      </c>
-      <c r="D353" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &gt;&gt;&gt;print(“I love browsing through “ProjectPro” content.”)
-</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t xml:space="preserve">It will give you a syntax error. That is because if one wants to print double quotes, they need to use single quotes for string. So, the correct code would be:
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&gt;&gt;&gt;print(“I love browsing through ‘ProjectPro’ content.”)
-</t>
-        </is>
-      </c>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Or
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&gt;&gt;&gt;print(‘I love browsing through “ProjectPro” content.’)
-</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Go through the following python interview questions for data science that are slightly advanced. These python data science interview questions might be difficult for you to answer but it is important that you prepare for these python interview questions as well before going for your interview.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1) How will you use Pandas library to import a CSV file from a URL?
-</t>
-        </is>
-      </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t xml:space="preserve">import pandas as pd
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t xml:space="preserve">         Data = pd.read_CV(‘sample_url’)
-</t>
-        </is>
-      </c>
-      <c r="D358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2) How will you transpose a NumPy array?
-</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t xml:space="preserve">nparr.T
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3) What are universal functions for n-dimensional arrays?
-</t>
-        </is>
-      </c>
-      <c r="D360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Universal functions are the functions that perform mathematical operations on each element of an n-dimensional array. Example: np.sqrt() and np.exp() evaluate square root and exponential of each element of an array respectively.
-</t>
-        </is>
-      </c>
-      <c r="D361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4) List a few statistical methods available for a NumPy array.
-</t>
-        </is>
-      </c>
-      <c r="D362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t xml:space="preserve">np.means(), np.cumsum(), np.sum(),
-</t>
-        </is>
-      </c>
-      <c r="D363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5) What are boolean arrays? Write a code to create a boolean array using the NumPy library.
-</t>
-        </is>
-      </c>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A boolean array is an array whose elements are of the boolean data type. A vital point to remember is that for boolean arrays, Python keywords and and or do not work.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Barr = np.array([ True, True, False, True, False, True, False], dtype=bool) 
-</t>
-        </is>
-      </c>
-      <c r="D365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C366" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6) What is Fancy Indexing?
-</t>
-        </is>
-      </c>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t xml:space="preserve">IN NumPy, one can use an integer list to describe the indexing of NumPy arrays. For example, Array[[2,1,0,3]] for an array of dimensions 4x4 will print the rows in the order specified by the list.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7) What is NaT in Python’s Pandas library?
-</t>
-        </is>
-      </c>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NaT stands for Not a Time. It is the NA value for timestamp data
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8) What is Broadcasting for NumPy arrays?
-</t>
-        </is>
-      </c>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Broadcasting is a technique that specifies how arithmetic calculations are performed between arrays of different dimensions. 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C369" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9) What is the necessary condition for broadcasting two arrays?
-</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The two arrays must satisfy either of the following conditions:
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C370" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10) What is PEP for Python?
-</t>
-        </is>
-      </c>
-      <c r="D370" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PEP stands for Python Enhancement Proposal. It is a document that provides information related to new features of Python, its processes or environments.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C371" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11) What do you mean by overfitting a dataset?
-</t>
-        </is>
-      </c>
-      <c r="D371" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Overfitting a dataset means our model is fitting the training dataset so well that it performs poorly on the test dataset. One of the key reasons for overfitting could be that the model has learned the noise in the dataset.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C372" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12) What do you mean by underfitting a dataset?
-</t>
-        </is>
-      </c>
-      <c r="D372" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Underfitting a dataset means our model is fitting the training dataset poorly. It usually occurs when we don’t fine-tune the parameters of a model and keep looking for alternatives.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C373" t="inlineStr">
-        <is>
-          <t xml:space="preserve">13) What is the difference between a test set and a validation set?
-</t>
-        </is>
-      </c>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t xml:space="preserve">For unsupervised learning, we use a validation set for selecting a model based on the estimated prediction error. On the other hand, we use a test set to assess the accuracy of the finally chosen model.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C374" t="inlineStr">
-        <is>
-          <t xml:space="preserve">14) What is F1-score for a binary classifier? Which library in Python contains this metric?
-</t>
-        </is>
-      </c>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The F1-score is a combination of precision and recall that represents the harmonic mean of the two quantities. It is given by the formula
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C375" t="inlineStr">
-        <is>
-          <t xml:space="preserve">15) Write a function for f1_score that takes True Positive, False Positive, True Negative, and False Negative as input and outputs f1_score.
-</t>
-        </is>
-      </c>
-      <c r="D375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C376" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def f1_score(tp, fp, fn, tn):  p =  tp / (tp + fp)   r = tp / (tp + fn)  return 2 * p * r / (p + r)
-</t>
-        </is>
-      </c>
-      <c r="D376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C377" t="inlineStr">
-        <is>
-          <t xml:space="preserve">16) Using sklearn library, how will you implement ridge regression?
-</t>
-        </is>
-      </c>
-      <c r="D377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C378" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&gt;&gt;&gt; from sklearn import linear_model&gt;&gt;&gt;reg = linear_model.LinearRegression()&gt;&gt;&gt; reg = linear_model.Ridge(alpha=0.5)&gt;&gt;&gt; reg.fit(sample_dataset)
-</t>
-        </is>
-      </c>
-      <c r="D378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C379" t="inlineStr">
-        <is>
           <t xml:space="preserve">17) Using sklearn library, how will you implement lasso regression?
 </t>
         </is>
       </c>
-      <c r="D379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>https://www.projectpro.io/article/100-data-science-in-python-interview-questions-and-answers-for-2021/188</t>
-        </is>
-      </c>
-      <c r="C380" t="inlineStr">
+      <c r="D346" t="inlineStr">
         <is>
           <t xml:space="preserve">&gt;&gt;&gt; from sklearn import linear_model&gt;&gt;&gt;reg = linear_model.LinearRegression()&gt;&gt;&gt; reg = linear_model.Lasso(alpha=0.4)&gt;&gt;&gt; reg.fit(sample_dataset)
-</t>
-        </is>
-      </c>
-      <c r="D380" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Covariance for variables that have large deviations from the mean would become large but the variables could still be related to each other. Correlation is thus a better metric than covariance for it divides out the standard deviations of the variables. 
-If we want to write a code in Python, and we are not sure whether it is error-free or not, then we can use try-except-finally in Python. 
+Covariance for variables that have large deviations from the mean would become large but the variables could still be related to each other. Correlation is thus a better metric than covariance for it divides out the standard deviations of the variables. 
+If we want to write a code in Python, and we are not sure whether it is error-free or not, then we can use try-except-finally in Python.  
 So far, most programming languages didn’t allow negative indexing and Python is one of those rare languages which supports that. Negative indexing means that one can use negative numbers to access the elements of an array. But, the key point to remember is that the index -1 represents the last element of the array, -2 represents the second last element of the array and so on. Thus, in negative indexing, the counting starts from where the array ends.
-The following python interview questions are a must for a Data Analyst 
-PREVIOUS
-</t>
+The following python interview questions are a must for a Data Analyst </t>
         </is>
       </c>
     </row>
